--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -351,15 +351,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -372,6 +363,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -405,14 +405,14 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="double">
           <color theme="4"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -610,10 +610,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1387,16 +1387,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G20" totalsRowShown="0" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8" headerRowCellStyle="Überschrift 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G20" totalsRowShown="0" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" headerRowCellStyle="Überschrift 2">
   <autoFilter ref="A1:G20"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="ID" dataDxfId="7"/>
-    <tableColumn id="7" name="Kann/Muss" dataDxfId="6"/>
-    <tableColumn id="2" name="Priorisierung" dataDxfId="5"/>
-    <tableColumn id="3" name="Story Points" dataDxfId="4"/>
-    <tableColumn id="4" name="UserStory" dataDxfId="3"/>
-    <tableColumn id="5" name="Status" dataDxfId="2"/>
-    <tableColumn id="6" name="Sprint" dataDxfId="1"/>
+    <tableColumn id="1" name="ID" dataDxfId="6"/>
+    <tableColumn id="7" name="Kann/Muss" dataDxfId="5"/>
+    <tableColumn id="2" name="Priorisierung" dataDxfId="4"/>
+    <tableColumn id="3" name="Story Points" dataDxfId="3"/>
+    <tableColumn id="4" name="UserStory" dataDxfId="2"/>
+    <tableColumn id="5" name="Status" dataDxfId="1"/>
+    <tableColumn id="6" name="Sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1667,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,387 +1703,387 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="13">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G3" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="D4" s="13">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="13">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="13">
+        <v>2</v>
+      </c>
+      <c r="D6" s="13">
         <v>6</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C7" s="13">
         <v>3</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D7" s="13">
+        <v>6</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="13">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="13">
+        <v>5</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="13">
+        <v>6</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="13">
+        <v>6</v>
+      </c>
+      <c r="D14" s="13">
         <v>8</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="E14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G14" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="E15" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C16" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="16">
-        <v>4</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="16">
-        <v>2</v>
-      </c>
-      <c r="D5" s="16">
-        <v>3</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="16">
-        <v>2</v>
-      </c>
-      <c r="D6" s="16">
-        <v>6</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="16">
-        <v>3</v>
-      </c>
-      <c r="D7" s="16">
-        <v>6</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="16">
-        <v>3</v>
-      </c>
-      <c r="D8" s="16">
-        <v>5</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="16">
-        <v>4</v>
-      </c>
-      <c r="D9" s="16">
-        <v>3</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="16">
-        <v>5</v>
-      </c>
-      <c r="D10" s="16">
-        <v>4</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="16">
-        <v>5</v>
-      </c>
-      <c r="D11" s="16">
-        <v>3</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="16">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>3</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="16">
-        <v>6</v>
-      </c>
-      <c r="D13" s="16">
-        <v>6</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A14" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="16">
-        <v>6</v>
-      </c>
-      <c r="D14" s="16">
-        <v>8</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A15" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="16">
-        <v>1</v>
-      </c>
-      <c r="D15" s="16">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="36" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
@@ -2106,44 +2106,44 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "InProgress", D2:D7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="10">
         <f>SUM(Tabelle2[Story Points])</f>
         <v>64</v>
@@ -2290,13 +2290,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2359,30 +2359,30 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="7">
         <v>42370</v>
       </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="8">
         <v>42403</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="12"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="9">
         <f>C21-C20</f>
         <v>33</v>

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\zjannn\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="9930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Sprintbacklog 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <oleSize ref="A7:G19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -610,10 +606,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1668,7 +1664,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1784,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="13">
         <v>1</v>
@@ -1811,7 +1807,7 @@
         <v>48</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="13">
         <v>2</v>
@@ -1949,7 +1945,7 @@
         <v>54</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="13">
         <v>1</v>
@@ -2018,7 +2014,7 @@
         <v>59</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G15" s="13">
         <v>1</v>
@@ -2113,7 +2109,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2124,7 +2120,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -1663,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="6150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -606,10 +606,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1663,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1761,7 @@
         <v>46</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="13">
         <v>1</v>
@@ -2109,7 +2109,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -606,10 +606,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1663,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1830,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" s="13">
         <v>2</v>
@@ -2109,7 +2109,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="6585"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -609,10 +609,10 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>64</c:v>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1830,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" s="13">
         <v>2</v>
@@ -2120,7 +2120,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,7 +2131,7 @@
       <c r="C28" s="17"/>
       <c r="D28" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "InProgress", D2:D7)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="6585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -609,10 +609,10 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>64</c:v>
@@ -1663,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1830,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" s="13">
         <v>2</v>
@@ -1974,7 +1974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>43</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="D14" s="13">
         <v>8</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="14" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -2120,7 +2120,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2131,7 +2131,7 @@
       <c r="C28" s="17"/>
       <c r="D28" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "InProgress", D2:D7)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -606,10 +606,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,7 +1738,7 @@
         <v>45</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="13">
         <v>2</v>
@@ -1853,7 +1853,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="13">
         <v>2</v>
@@ -1876,7 +1876,7 @@
         <v>51</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" s="13">
         <v>2</v>
@@ -1922,7 +1922,7 @@
         <v>53</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" s="13">
         <v>3</v>
@@ -2109,7 +2109,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21210" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20205" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20205" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
+++ b/Boomberman/doku/220_Scrum_Joey_Nico.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -606,10 +606,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1664,7 +1664,7 @@
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
@@ -1803,7 +1803,7 @@
       <c r="D6" s="13">
         <v>6</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -1899,7 +1899,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="13">
         <v>3</v>
@@ -2035,7 +2035,7 @@
         <v>60</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="13"/>
     </row>
@@ -2109,7 +2109,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
       <c r="C27" s="17"/>
       <c r="D27" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
